--- a/archivos de importación/profesor.xlsx
+++ b/archivos de importación/profesor.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cbe82d14fb70d01/Documentos/CESMI/Tercer AÑO/Seminario de Análisis/Gestion_de_Asistencia_Escolar/archivos de importación/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_20221C7FC8A39BCDCF41F415E07476D841DC0F69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9D945B-52D0-4B68-B16D-61BC20866F23}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>nombre</t>
   </si>
@@ -68,17 +73,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bauhaus 93"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,28 +100,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,113 +440,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/archivos de importación/profesor.xlsx
+++ b/archivos de importación/profesor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cbe82d14fb70d01/Documentos/CESMI/Tercer AÑO/Seminario de Análisis/Gestion_de_Asistencia_Escolar/archivos de importación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_20221C7FC8A39BCDCF41F415E07476D841DC0F69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9D945B-52D0-4B68-B16D-61BC20866F23}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_20221C7FC8A39BCDCF41F415E07476D841DC0F69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B0B67D1-CDF2-4170-9B82-341AC386FA84}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,16 +83,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Bauhaus 93"/>
-      <family val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Rounded MT Bold"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Bauhaus 93"/>
+      <family val="5"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,10 +133,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,82 +453,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
